--- a/docs/excel/TLevel.xlsx
+++ b/docs/excel/TLevel.xlsx
@@ -1,22 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN-H5\JumpJump\docs\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DDFFD01-D368-42AC-82AA-345548ECC605}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="135" windowWidth="27915" windowHeight="12345" tabRatio="204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="225" yWindow="135" windowWidth="27915" windowHeight="12345" tabRatio="204"/>
   </bookViews>
   <sheets>
     <sheet name="TLevel" sheetId="1" r:id="rId1"/>
     <sheet name="@Types" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -80,10 +74,6 @@
     <t>ObjectType</t>
   </si>
   <si>
-    <t>uint32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TableName: "TLevel" Package: "table" CSClassHeader: "[System.Serializable]"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -105,13 +95,17 @@
   </si>
   <si>
     <t>奖励</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -185,7 +179,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -521,11 +515,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C304"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -538,15 +532,15 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -562,13 +556,13 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -2051,7 +2045,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -2067,7 +2061,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
